--- a/InputData/elec/RQSD/RPS Qualifying Source Definitions.xlsx
+++ b/InputData/elec/RQSD/RPS Qualifying Source Definitions.xlsx
@@ -1,34 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipI - units progress\InputData\elec\RQSD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iamho\Dropbox\Energy Innovation\InputData_RevisionComplete\elec\RQSD\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24FAF4FE-17A0-42FE-B7C7-824CB7114B8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="135" windowWidth="24915" windowHeight="11565"/>
+    <workbookView xWindow="9240" yWindow="1190" windowWidth="28090" windowHeight="18220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="RQSD-BRQSD" sheetId="2" r:id="rId2"/>
     <sheet name="RQSD-RQSD" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="28">
   <si>
     <t>Source:</t>
   </si>
   <si>
-    <t>Each U.S. state that has an RPS defines the sources that qualify for that RPS, leading to</t>
-  </si>
-  <si>
     <t>Electricity Source</t>
   </si>
   <si>
@@ -62,9 +71,6 @@
     <t>Notes</t>
   </si>
   <si>
-    <t>The non-BAU version of this variable supports a boolean policy lever and is intended to be set by the</t>
-  </si>
-  <si>
     <t>RQSD BAU RPS Qualifying Source Definitions</t>
   </si>
   <si>
@@ -83,30 +89,6 @@
     <t>offshore wind</t>
   </si>
   <si>
-    <t>differences between states.  Here, we use a "clean energy standard"</t>
-  </si>
-  <si>
-    <t>(counting everything except fossil fuels) as our definition for the BAU case.</t>
-  </si>
-  <si>
-    <t>model user.  The example we include uses only wind, solar, and geothermal.</t>
-  </si>
-  <si>
-    <t>Hydro is excluded because of limited potential for new large hydro and land use impacts.</t>
-  </si>
-  <si>
-    <t>Biomass is excluded because it is not truly carbon-neutral, and it has other issues, such as</t>
-  </si>
-  <si>
-    <t>local air quality impacts and land use challenges.</t>
-  </si>
-  <si>
-    <t>Nuclear is excluded because of the need to manage nuclear waste.</t>
-  </si>
-  <si>
-    <t>see notes</t>
-  </si>
-  <si>
     <t>crude oil</t>
   </si>
   <si>
@@ -117,17 +99,40 @@
   </si>
   <si>
     <t>Qualifies for RPS (Boolean)</t>
+  </si>
+  <si>
+    <t>https://www.knrec.or.kr/business/rps_guide.aspx</t>
+  </si>
+  <si>
+    <t>RPS</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Korea Energy Agency</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Renewable energy certificates</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>There is no difference by region in South Korea</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>We allocated boolean values based on the list provided by Korea Energy Agency.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -135,7 +140,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -143,17 +148,45 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -172,15 +205,15 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -196,7 +229,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -271,6 +304,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -306,6 +356,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -481,24 +548,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="84.59765625" customWidth="1"/>
+    <col min="2" max="2" width="84.58203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
@@ -506,96 +575,74 @@
         <v>0</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B5" s="2"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A8" s="1" t="s">
-        <v>12</v>
+      <c r="B5" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>1</v>
+      <c r="A9" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A18" t="s">
         <v>26</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="24.59765625" customWidth="1"/>
-    <col min="2" max="2" width="22.86328125" customWidth="1"/>
+    <col min="1" max="1" width="24.58203125" customWidth="1"/>
+    <col min="2" max="2" width="22.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>31</v>
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -603,7 +650,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -611,15 +658,15 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -627,7 +674,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -635,7 +682,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -643,7 +690,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -651,7 +698,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -659,7 +706,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -667,7 +714,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -675,7 +722,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -683,7 +730,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B13">
         <f>B2</f>
@@ -692,7 +739,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -700,7 +747,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -708,7 +755,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -716,45 +763,47 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="24.59765625" customWidth="1"/>
-    <col min="2" max="2" width="22.86328125" customWidth="1"/>
+    <col min="1" max="1" width="24.58203125" customWidth="1"/>
+    <col min="2" max="2" width="22.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>31</v>
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -762,7 +811,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -770,7 +819,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -778,15 +827,15 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -794,7 +843,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -802,7 +851,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -810,15 +859,15 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -826,7 +875,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -834,7 +883,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -842,7 +891,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B13">
         <f>B2</f>
@@ -851,7 +900,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -859,7 +908,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -867,7 +916,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -875,13 +924,14 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>